--- a/mySkills/translate/input/1.xlsx
+++ b/mySkills/translate/input/1.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17205"/>
   </bookViews>
   <sheets>
-    <sheet name="源代码-qt(ts)__20260203034840" sheetId="1" r:id="rId1"/>
+    <sheet name="源代码-qt(tr)__20260204092544" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -47,43 +47,52 @@
     <t>英文翻译</t>
   </si>
   <si>
-    <t>44b2f02a-28ef-4795-8f3c-fd009fc59a54</t>
-  </si>
-  <si>
-    <t>请选择需要操作的曲线</t>
-  </si>
-  <si>
-    <t>CMyCurveDefinition</t>
+    <t>62e5eb5d-edb3-4542-b98a-dfd2fd8afd19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码长度过长; </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>curve_base_widget</t>
-  </si>
-  <si>
-    <t>8f803d4b-2ee3-41d7-9ab8-39c9d6651cd5</t>
-  </si>
-  <si>
-    <t>创建图元失败</t>
-  </si>
-  <si>
-    <t>DlgIconAttrEdit</t>
-  </si>
-  <si>
-    <t>gui_grapheditor</t>
-  </si>
-  <si>
-    <t>7b2cc408-b3c2-4a6d-91e2-2c4aa0757e83</t>
-  </si>
-  <si>
-    <t>请确认是否删除当前画面类型以及画面类型下所有的画面目录和画面</t>
-  </si>
-  <si>
-    <t>PicNodeList</t>
-  </si>
-  <si>
-    <t>graphic_msg_handler</t>
+    <t>pt/sec_privilege</t>
+  </si>
+  <si>
+    <t>739df750-462e-4ed6-a1a8-d03dc6b0af30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须包含大写字母; </t>
+  </si>
+  <si>
+    <t>49106a6a-781e-4e51-ba07-b41b34d0cf64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须包含数字; </t>
+  </si>
+  <si>
+    <t>a7f272ad-c9ee-4880-9776-15f8b1775780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不能包含用户名; </t>
+  </si>
+  <si>
+    <t>a80883e2-5143-4238-a4d0-d61bda5156ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须包含特殊字符; </t>
+  </si>
+  <si>
+    <t>6bbade63-6be2-46f3-879e-1faecb24cb9e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密码长度过短; </t>
+  </si>
+  <si>
+    <t>c71c8ec9-15ee-412f-9c7d-0ddf18af6862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">必须包含小写字母; </t>
   </si>
 </sst>
 </file>
@@ -1258,13 +1267,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.7166666666667" hidden="1" customWidth="1"/>
     <col min="2" max="6" width="25.7166666666667" customWidth="1"/>
@@ -1301,48 +1310,120 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
